--- a/biology/Botanique/Douglaseraie_des_Farges/Douglaseraie_des_Farges.xlsx
+++ b/biology/Botanique/Douglaseraie_des_Farges/Douglaseraie_des_Farges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Douglaseraie des Farges est une forêt domaniale de dix hectares, située sur le territoire de la commune de Meymac en Corrèze, le long de la départementale D109, au nord-ouest de la commune, et à environ 4 km du bourg.
@@ -513,13 +525,15 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a été plantée en 1895 de Pseudotsuga menziesii ou sapins de Douglas.
-Ce site a été sauvegardé en 1962 grâce à l'intervention de l'ONF qui a racheté le terrain et fait cesser les coupes. « Sans la volonté de certains forestiers et habitants locaux dont Marius Vazeilles, il ne resterait aucun de ces arbres. »[1]
+Ce site a été sauvegardé en 1962 grâce à l'intervention de l'ONF qui a racheté le terrain et fait cesser les coupes. « Sans la volonté de certains forestiers et habitants locaux dont Marius Vazeilles, il ne resterait aucun de ces arbres. »
 Ces douglas verts atteignent une hauteur de 50 m et un volume supérieur à 15 m3. Dix arbres ont fait l'objet de mesures[Quand ?] : le plus haut dépasse les 56 m pour un diamètre de 1,04 m. Les circonférences varient de 3,7 m à 3,79 m, les diamètres de 0,97 m à 1,17 m, les hauteurs de 43,4 m à 56,80 m.
-Une hauteur de 52 m avait été mesurée en 1993, 22 ans plus tard, en 2015, deux arbres ont été mesurés à plus de 61 m, quelques autres pouvaient atteindre cette hauteur, bien qu'ils n'aient pas été mesurés directement, mais par comparaison visuelle. Un douglas français atteignait 66,44 m dans la commune de Renaison[2].
-Le site est désormais signalé par un panneau informatif de l'ONF[3].
+Une hauteur de 52 m avait été mesurée en 1993, 22 ans plus tard, en 2015, deux arbres ont été mesurés à plus de 61 m, quelques autres pouvaient atteindre cette hauteur, bien qu'ils n'aient pas été mesurés directement, mais par comparaison visuelle. Un douglas français atteignait 66,44 m dans la commune de Renaison.
+Le site est désormais signalé par un panneau informatif de l'ONF.
 </t>
         </is>
       </c>
